--- a/PFOA inhalation Rat/Data/Dzierlenga_tissue_female.xlsx
+++ b/PFOA inhalation Rat/Data/Dzierlenga_tissue_female.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\PBK_Grouping\PFOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F95345-12A4-40F2-A121-FFC120C8590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5D211C-F6B8-4145-9543-0F94DE77991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="1515" windowWidth="7725" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="serum_male" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
-  <si>
-    <t>Dose</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Tissue</t>
   </si>
@@ -41,13 +51,43 @@
   </si>
   <si>
     <t>Mass_microM</t>
+  </si>
+  <si>
+    <t>Concentration_microg_per_g_organ</t>
+  </si>
+  <si>
+    <t>MW (g/mol)</t>
+  </si>
+  <si>
+    <t>BW (kg)</t>
+  </si>
+  <si>
+    <t>VLT (kg=L)</t>
+  </si>
+  <si>
+    <t>VKT  (kg=L)</t>
+  </si>
+  <si>
+    <t>VBrT  (kg=L)</t>
+  </si>
+  <si>
+    <t>Dose_mg_per_kg</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>oral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +220,23 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -524,52 +581,65 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Εισαγωγή" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Έλεγχος κελιού" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Έμφαση1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Έμφαση2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Έμφαση3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Έμφαση4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Έμφαση5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Έμφαση6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Έξοδος" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Επεξηγηματικό κείμενο" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Κακό" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Καλό" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
-    <cellStyle name="Ουδέτερο" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Προειδοποιητικό κείμενο" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Σημείωση" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Συνδεδεμένο κελί" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Σύνολο" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,9 +655,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -625,7 +695,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -731,7 +801,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -873,7 +943,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -881,209 +951,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>414.07</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="4">
         <v>184.05307590000001</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="4">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3">
+        <f>C2*K$1/1000</f>
+        <v>76.210857137912996</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>8.70165E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>393.0977226</v>
+      </c>
+      <c r="D3" s="4">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H18" si="0">C3*K$1/1000</f>
+        <v>162.769973996982</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>1.29575E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>141.7881285</v>
+      </c>
+      <c r="D4" s="4">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>58.710210367995003</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>1.423934E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20.669561130000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5586451770991001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.4170701610000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58676624156527002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>353.55632179999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>80</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>146.39706616772597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>393.0977226</v>
-      </c>
-      <c r="C3">
+      <c r="C8" s="4">
+        <v>502.97404669999997</v>
+      </c>
+      <c r="D8" s="4">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>208.26646351706898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B9" s="4">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>141.7881285</v>
-      </c>
-      <c r="C4">
+      <c r="C9" s="4">
+        <v>177.8266088</v>
+      </c>
+      <c r="D9" s="4">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>73.632663905815988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B10" s="4">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>20.669561130000002</v>
-      </c>
-      <c r="C5">
+      <c r="C10" s="4">
+        <v>30.41758411</v>
+      </c>
+      <c r="D10" s="4">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>12.595009052427701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B11" s="4">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>1.4170701610000001</v>
-      </c>
-      <c r="C6">
+      <c r="C11" s="4">
+        <v>1.4360754920000001</v>
+      </c>
+      <c r="D11" s="4">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59463577897244002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>353.55632179999998</v>
-      </c>
-      <c r="C7">
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5.0436553020000003</v>
+      </c>
+      <c r="D12" s="4">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0884263508991401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>502.97404669999997</v>
-      </c>
-      <c r="C8">
+      <c r="C13" s="4">
+        <v>8.143230398</v>
+      </c>
+      <c r="D13" s="4">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3718674108998599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>177.8266088</v>
-      </c>
-      <c r="C9">
+      <c r="C14" s="4">
+        <v>2.7663010200000002</v>
+      </c>
+      <c r="D14" s="4">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>30.41758411</v>
-      </c>
-      <c r="C10">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>1.4360754920000001</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>5.0436553020000003</v>
-      </c>
-      <c r="C12">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>8.143230398</v>
-      </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>2.7663010200000002</v>
-      </c>
-      <c r="C14">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1454422633514001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="H18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
